--- a/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
@@ -52,14 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lua/UI/SelectPeriod/SelectPeriodControl.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/UI/SelectPeriod/SelectPeriodView.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lua/UI/LoadgameMenu/LoadgameMenuControl.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +69,14 @@
   </si>
   <si>
     <t>Lua/TestLua.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/SelectTimes/SelectTimesView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/SelectTimes/SelectTimesControl.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +497,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -522,17 +522,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
@@ -567,22 +567,22 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,23 +60,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Lua/UI/LuaFunctionHelper.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/TestLua.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/SelectTimes/SelectTimesView.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/UI/SelectTimes/SelectTimesControl.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Lua/UI/UINamesConfig.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lua/UI/LuaFunctionHelper.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/TestLua.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/UI/SelectTimes/SelectTimesView.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua/UI/SelectTimes/SelectTimesControl.lua</t>
+    <t>Lua/UI/MenuItemType.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -522,52 +526,52 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
@@ -577,11 +581,16 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>

--- a/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lua/TestLua.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lua/UI/SelectTimes/SelectTimesView.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,7 +76,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lua/UI/MenuItemType.lua</t>
+    <t>Lua/Test/TestLua.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/Define.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +501,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,22 +526,22 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
@@ -576,12 +576,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">

--- a/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/LuaScripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,11 +76,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Lua/Define.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Lua/Test/TestLua.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lua/Define.lua</t>
+    <t>Lua/GameStates/InternalAffairsState.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameStates/LoadingState.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameStates/SelectKingState.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameStates/SelectTimesState.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameStates/StartMenuState.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua/GameStates/WorldMapState.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,71 +550,101 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
